--- a/Nozzle-CC/injector/injector assembly.xlsx
+++ b/Nozzle-CC/injector/injector assembly.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Documents/A-OneSpace/Converse-Engine/Nozzle-CC/injector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DC5AEB-2DBD-1342-90F9-C0E8D1E108B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647993C-D5C8-0D4D-87CF-605F295141DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{6FE0A4F5-1E28-4241-BC26-187A394A092B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{6FE0A4F5-1E28-4241-BC26-187A394A092B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calcs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Injector Assembly</t>
   </si>
@@ -34,19 +35,42 @@
   </si>
   <si>
     <t>M10</t>
+  </si>
+  <si>
+    <t>Injector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge Coefficient (Cd) </t>
+  </si>
+  <si>
+    <t>Oxidizer cross sectional area (Ao)</t>
+  </si>
+  <si>
+    <t>Fuel cross sectional area (Af)</t>
+  </si>
+  <si>
+    <t>Oxidizer Density (Do)</t>
+  </si>
+  <si>
+    <t>Fuel Density (Df)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8C4E6A-6D1F-9249-AA55-05A8BCBB33AA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -412,4 +440,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34347575-BE53-3F4C-BF80-8DE1DFF0CEA2}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>